--- a/data/trans_dic/P79$ninguna_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P79$ninguna_2023-Habitat-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9083065445001192</v>
+        <v>0.9083065445001193</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.8844021438246311</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8844458557827821</v>
+        <v>0.8840623200929</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8611577389833058</v>
+        <v>0.8606276371699184</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.878987113939272</v>
+        <v>0.8788750384774754</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9294814546837254</v>
+        <v>0.9282688655441566</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9039367325112702</v>
+        <v>0.9029099880218013</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9110692660248864</v>
+        <v>0.9101127689045933</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.868266738552712</v>
+        <v>0.8682667385527119</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8586770636585919</v>
+        <v>0.858677063658592</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8634451919117969</v>
+        <v>0.863445191911797</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8416012512056426</v>
+        <v>0.8445767130814429</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8367563536000234</v>
+        <v>0.8378091048004602</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8463033511795824</v>
+        <v>0.8479124565822641</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8914982305572422</v>
+        <v>0.8898205820805783</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8773934807315031</v>
+        <v>0.8768457303424684</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8782647807136131</v>
+        <v>0.8793350784758764</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8348144092733181</v>
+        <v>0.8351381015618082</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8620643339853754</v>
+        <v>0.8589125895844664</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8556499193365202</v>
+        <v>0.8564298699921872</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8945912947672513</v>
+        <v>0.8929990452676434</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9063446795130561</v>
+        <v>0.9056520740455449</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8923221589625717</v>
+        <v>0.8950568266618113</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.809141338616389</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8124743145670774</v>
+        <v>0.8124743145670773</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8109036812180513</v>
+        <v>0.8109036812180512</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7806502475264315</v>
+        <v>0.7811078921448835</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7880858039605009</v>
+        <v>0.7907065410372324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7921537484042696</v>
+        <v>0.7942122726281666</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8361069762596085</v>
+        <v>0.8361287085971628</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.831938353822661</v>
+        <v>0.8341929684083467</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8283604275206476</v>
+        <v>0.8281644377756497</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8593354673951267</v>
+        <v>0.8593354673951266</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.8558409473021453</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8575438446937425</v>
+        <v>0.8575438446937423</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8451197512888374</v>
+        <v>0.8462770484932072</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8449420801510801</v>
+        <v>0.844441300176948</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8487709552366904</v>
+        <v>0.849173706738533</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8720197373268259</v>
+        <v>0.872492599537824</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8672288956892311</v>
+        <v>0.8658769951481952</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8653903025864709</v>
+        <v>0.8653268516550829</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>593062</v>
+        <v>592804</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>613801</v>
+        <v>613423</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1215909</v>
+        <v>1215754</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>623260</v>
+        <v>622447</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>644292</v>
+        <v>643560</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1260288</v>
+        <v>1258965</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>858917</v>
+        <v>861954</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>863539</v>
+        <v>864626</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1737108</v>
+        <v>1740411</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>909841</v>
+        <v>908129</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>905477</v>
+        <v>904912</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1802711</v>
+        <v>1804908</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>641809</v>
+        <v>642058</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>669052</v>
+        <v>666605</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1321901</v>
+        <v>1323106</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>687766</v>
+        <v>686542</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>703418</v>
+        <v>702880</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1378557</v>
+        <v>1382781</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>750122</v>
+        <v>750562</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>849698</v>
+        <v>852523</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1615259</v>
+        <v>1619457</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>803410</v>
+        <v>803431</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>896978</v>
+        <v>899409</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1689087</v>
+        <v>1688688</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2891002</v>
+        <v>2894961</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3040991</v>
+        <v>3039189</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5958263</v>
+        <v>5961091</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2983022</v>
+        <v>2984639</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3121203</v>
+        <v>3116337</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6074929</v>
+        <v>6074484</v>
       </c>
     </row>
     <row r="24">
